--- a/Tools/Localization/localization_strings.xlsx
+++ b/Tools/Localization/localization_strings.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stuffs\jamjam\Tools\Localization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A819890D-8288-4D23-9D53-605E17D04581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67115AD2-90B6-4A86-AB56-EDC794B663EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN_MENU" sheetId="1" r:id="rId1"/>
+    <sheet name="GAME_UI" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>Key</t>
   </si>
@@ -49,6 +50,51 @@
   </si>
   <si>
     <t>Chuỗi ví dụ</t>
+  </si>
+  <si>
+    <t>STR_EXAMPLE_1</t>
+  </si>
+  <si>
+    <t>Real Example string 1</t>
+  </si>
+  <si>
+    <t>Chuỗi ví dụ thật 1</t>
+  </si>
+  <si>
+    <t>STR_EXAMPLE_2</t>
+  </si>
+  <si>
+    <t>STR_EXAMPLE_3</t>
+  </si>
+  <si>
+    <t>Real Example string 2</t>
+  </si>
+  <si>
+    <t>Real Example string 3</t>
+  </si>
+  <si>
+    <t>Chuỗi ví dụ thật 2</t>
+  </si>
+  <si>
+    <t>Chuỗi ví dụ thật 3</t>
+  </si>
+  <si>
+    <t>STR_HP_LABEL</t>
+  </si>
+  <si>
+    <t>Health Points</t>
+  </si>
+  <si>
+    <t>Máu</t>
+  </si>
+  <si>
+    <t>STR_MP_LABEL</t>
+  </si>
+  <si>
+    <t>Mana</t>
+  </si>
+  <si>
+    <t>Mana Points</t>
   </si>
 </sst>
 </file>
@@ -519,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,6 +609,39 @@
         <v>7</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A2"/>
@@ -570,4 +649,69 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{490F465B-3490-43F4-92AB-4AFE5F6F7D1C}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="91" style="3" customWidth="1"/>
+    <col min="3" max="3" width="96.85546875" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9"/>
+      <c r="B2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Tools/Localization/localization_strings.xlsx
+++ b/Tools/Localization/localization_strings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stuffs\jamjam\Tools\Localization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67115AD2-90B6-4A86-AB56-EDC794B663EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69DF9B08-293B-4DC8-B74A-51B7F361803A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN_MENU" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>Key</t>
   </si>
@@ -95,6 +95,26 @@
   </si>
   <si>
     <t>Mana Points</t>
+  </si>
+  <si>
+    <t>STR_TEST_NEWLINE</t>
+  </si>
+  <si>
+    <t>Line 1
+Line 2</t>
+  </si>
+  <si>
+    <t>Dòng 1
+Dòng 2</t>
+  </si>
+  <si>
+    <t>STR_TEXT_PARAMETER</t>
+  </si>
+  <si>
+    <t>Parameter: {test_param}</t>
+  </si>
+  <si>
+    <t>Biến: {test_param}</t>
   </si>
 </sst>
 </file>
@@ -262,7 +282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -278,6 +298,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -565,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,7 +605,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -590,7 +616,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
+      <c r="A2" s="11"/>
       <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
@@ -640,6 +666,28 @@
       </c>
       <c r="C6" s="2" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -655,8 +703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{490F465B-3490-43F4-92AB-4AFE5F6F7D1C}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,7 +715,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -678,7 +726,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
+      <c r="A2" s="11"/>
       <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
